--- a/今日行业上榜.xlsx
+++ b/今日行业上榜.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>前日差</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>档位</t>
         </is>
       </c>
@@ -481,32 +486,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>周期</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47.9</v>
-      </c>
+          <t>两轮车</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>681.9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9036608863198459</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.645984098684793</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.82635785002933</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,28 +506,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大科技</t>
+          <t>乡村振兴</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52.9</v>
+        <v>9.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1231.8</v>
+        <v>137.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.296551724137931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3108999518752378</v>
+        <v>0.4742648978820824</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7932699855625713</v>
+        <v>0.3498656762611764</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -547,30 +542,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>公用事业</t>
+          <t>人形机器人</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29.3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>295.7</v>
+        <v>59.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5452793834296725</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.03373681318898052</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6816955684007707</v>
+        <v>0.01012104395669416</v>
       </c>
       <c r="H4" t="n">
+        <v>39</v>
+      </c>
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -580,28 +578,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乡村振兴</t>
+          <t>传媒</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13.1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>137.1</v>
+        <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.233140655105973</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9565953276045165</v>
+        <v>0.006659956507229768</v>
       </c>
       <c r="G5" t="n">
-        <v>0.450177056855536</v>
+        <v>0.02613591798665169</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -613,30 +614,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>大消费</t>
+          <t>体育产业</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>661.9</v>
+        <v>17.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9306358381502889</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6979983047105639</v>
+        <v>0.8543917438525374</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8608445781183713</v>
+        <v>0.2804554541902439</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>23</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -646,30 +648,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>地产基建</t>
+          <t>假期经济</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46.2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>523.4</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8709055876685935</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8672176604955292</v>
+        <v>0.5445756240387798</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8697992095166741</v>
+        <v>0.2840623423840477</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-13</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -679,30 +684,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>医药生物</t>
+          <t>储能</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41.3</v>
+        <v>3.3</v>
       </c>
       <c r="D8" t="n">
-        <v>544.6</v>
+        <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7764932562620424</v>
+        <v>0.0793103448275862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7146045367525841</v>
+        <v>0.1598594083405009</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7579266404092048</v>
+        <v>0.1034750638814606</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
+        <v>32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -712,30 +720,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>汽车产业</t>
+          <t>充换电</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="D9" t="n">
-        <v>403.5</v>
+        <v>94.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2697495183044316</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2400702536619346</v>
+        <v>0.4721976056419672</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2608457389116825</v>
+        <v>0.2768316954856936</v>
       </c>
       <c r="H9" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" t="n">
         <v>11</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -745,30 +756,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>高端制造</t>
+          <t>光伏</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>6.3</v>
       </c>
       <c r="D10" t="n">
-        <v>420.9</v>
+        <v>162.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4624277456647399</v>
+        <v>0.1827586206896552</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5128277533324608</v>
+        <v>0.2153994755947995</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4775477479650561</v>
+        <v>0.1925508771611985</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>26</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -778,30 +792,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>新能源</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>638.7</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6146435452793835</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4160368030032991</v>
+        <v>0.8909023819721278</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5550615225965582</v>
+        <v>0.3879603697640521</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -815,26 +832,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12.6</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>234</v>
+        <v>237.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2235067437379576</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="F12" t="n">
-        <v>0.444700671998128</v>
+        <v>0.6974223433228915</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2898649222160087</v>
+        <v>0.7402611857554882</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>4</t>
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -844,28 +864,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>化工</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>407.1</v>
       </c>
       <c r="E13" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4652073829738916</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7912863528232019</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.02926231326276177</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.008778693978828529</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -873,30 +900,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>大金融</t>
+          <t>医药生物</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>545.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3353344729702011</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7764624108565776</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>170.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.03853564547206166</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.02697495183044316</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="I14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -906,28 +936,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>运输业</t>
+          <t>商贸零售</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>149.6</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03853564547206166</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02991869375177</v>
+        <v>0.1469688374114987</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03595055995597416</v>
+        <v>0.06822858225793237</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
-      </c>
-      <c r="I15" t="inlineStr">
+        <v>35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -939,18 +972,1083 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>社会服务</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>基建</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>26.6</v>
+      </c>
       <c r="D16" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+        <v>403.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8827586206896553</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4418789145865135</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7504947088587127</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>大金融</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>170.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3328031395078605</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2929443901282202</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>62</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>家电</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0793103448275862</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2698024168023472</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1364579664200145</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03529006754817827</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03472495129893624</v>
+      </c>
+      <c r="H20" t="n">
+        <v>36</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>教育</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2589030249558039</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1018088385212239</v>
+      </c>
+      <c r="H21" t="n">
+        <v>33</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3094807671324298</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2135338853121427</v>
+      </c>
+      <c r="H22" t="n">
+        <v>25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>机械</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>333.3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5169708813532821</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7344016092335708</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>核电核能</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9287602004081744</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4234556463293488</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>检测服务</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>氢能源</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1827586206896552</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5597322648540344</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2958507139389689</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-8</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>汽车产业</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>397.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3950017190883003</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6736729295195936</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>油气</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5903138538920576</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3219217423745138</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>烟草</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>煤炭</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>42</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>40</v>
+      </c>
+      <c r="I31" t="n">
+        <v>26</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>电商</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0103448275862069</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06983778528977332</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02819271489727682</v>
+      </c>
+      <c r="H32" t="n">
+        <v>37</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>25</v>
+      </c>
+      <c r="D33" t="n">
+        <v>574.6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2551837286586607</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6558654634251844</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3413793103448276</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3801033014925735</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3529965076891514</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>电网</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>16</v>
+      </c>
+      <c r="D35" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8986919571893519</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.6316765526740469</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>稀土永磁</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1137931034482759</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3796551724137931</v>
+      </c>
+      <c r="H36" t="n">
+        <v>14</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>纺织服饰</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1137931034482759</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2685822149579645</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1602298369011824</v>
+      </c>
+      <c r="H37" t="n">
+        <v>29</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>美容护理</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7246828979013606</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3139565935083392</v>
+      </c>
+      <c r="H38" t="n">
+        <v>18</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>节能环保</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>18</v>
+      </c>
+      <c r="D39" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6552837243076595</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6069299448785046</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>计算机</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
+        <v>383.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5437268754775135</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.863118062643254</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-15</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>运输业</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2246999876486542</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1880996514670101</v>
+      </c>
+      <c r="H41" t="n">
+        <v>27</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>通信</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
+      <c r="D42" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.3694046113378886</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3039248316772286</v>
+      </c>
+      <c r="H42" t="n">
+        <v>19</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>钢铁</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.2893461539064939</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1109417772064309</v>
+      </c>
+      <c r="H44" t="n">
+        <v>31</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>风电</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.103448275862069</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.321986209688677</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1690096560100514</v>
+      </c>
+      <c r="H45" t="n">
+        <v>28</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>食品医疗</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>食品饮料</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>12</v>
+      </c>
+      <c r="D47" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5292240399596363</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.4242844533672012</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-19</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>饰品</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.2837720598732689</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.08513161796198067</v>
+      </c>
+      <c r="H48" t="n">
+        <v>34</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/今日行业上榜.xlsx
+++ b/今日行业上榜.xlsx
@@ -510,29 +510,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.6</v>
+        <v>5.9</v>
       </c>
       <c r="D3" t="n">
         <v>137.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.296551724137931</v>
+        <v>0.1484848484848485</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4742648978820824</v>
+        <v>0.1506123798268919</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3498656762611764</v>
+        <v>0.1491231078874615</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>59.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03373681318898052</v>
+        <v>0.5972781889551161</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01012104395669416</v>
+        <v>0.3064561839592621</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>-14</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -582,22 +582,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006659956507229768</v>
+        <v>0.05706415769897536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02613591798665169</v>
+        <v>0.08075561094605624</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -624,21 +624,23 @@
         <v>17.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8543917438525374</v>
+        <v>0.5827850784680987</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2804554541902439</v>
+        <v>0.1960476447525508</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -652,29 +654,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5445756240387798</v>
+        <v>0.2057977053196352</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2840623423840477</v>
+        <v>0.1253756752322542</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -688,25 +690,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0793103448275862</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1598594083405009</v>
+        <v>0.1261963770420733</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1034750638814606</v>
+        <v>0.1014952767489856</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -724,25 +726,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D9" t="n">
         <v>94.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1931034482758621</v>
+        <v>0.1909090909090909</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4721976056419672</v>
+        <v>0.3532017944236645</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2768316954856936</v>
+        <v>0.239596901963463</v>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -760,29 +762,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
         <v>162.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1827586206896552</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2153994755947995</v>
+        <v>0.2973258525332362</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1925508771611985</v>
+        <v>0.301318967881183</v>
       </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -796,29 +798,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8909023819721278</v>
+        <v>0.9657521894258838</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3879603697640521</v>
+        <v>0.4594226265247348</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -832,29 +834,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>237.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6974223433228915</v>
+        <v>0.1953497393530872</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7402611857554882</v>
+        <v>0.2919382551392595</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -868,25 +870,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>25.3</v>
       </c>
       <c r="D13" t="n">
         <v>407.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4652073829738916</v>
+        <v>0.2648402972866817</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7912863528232019</v>
+        <v>0.5949066346405499</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -904,22 +906,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>545.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3353344729702011</v>
+        <v>0.2658502908612772</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7764624108565776</v>
+        <v>0.7797550872583832</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>-5</v>
@@ -940,29 +942,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1469688374114987</v>
+        <v>0.6205166544042996</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06822858225793237</v>
+        <v>0.3346398448061383</v>
       </c>
       <c r="H15" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -976,25 +978,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26.6</v>
+        <v>28.3</v>
       </c>
       <c r="D16" t="n">
         <v>403.2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8827586206896553</v>
+        <v>0.8272727272727273</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4418789145865135</v>
+        <v>0.3126663816723215</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7504947088587127</v>
+        <v>0.6728908235926055</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1012,29 +1014,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>170.3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3328031395078605</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2929443901282202</v>
+        <v>0.04242424242424242</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I17" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1047,16 +1049,32 @@
           <t>家居用品</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
       <c r="D18" t="n">
         <v>62</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1830061837548262</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.09732609755069027</v>
+      </c>
+      <c r="H18" t="n">
+        <v>35</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,25 +1086,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0793103448275862</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2698024168023472</v>
+        <v>0.1399782069644277</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1364579664200145</v>
+        <v>0.08441770451357072</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1104,25 +1122,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>117.3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03529006754817827</v>
+        <v>0.04733766752692418</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03472495129893624</v>
+        <v>0.05662554268231967</v>
       </c>
       <c r="H20" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1140,29 +1158,29 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>45.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2589030249558039</v>
+        <v>0.5487851968552584</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1018088385212239</v>
+        <v>0.2494840439050623</v>
       </c>
       <c r="H21" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I21" t="n">
-        <v>-3</v>
+        <v>-19</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1176,25 +1194,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="D22" t="n">
         <v>119.9</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.06969696969696969</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3094807671324298</v>
+        <v>0.05892003201933062</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2135338853121427</v>
+        <v>0.06646388839367796</v>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1212,25 +1230,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
         <v>333.3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5169708813532821</v>
+        <v>0.2877952732023121</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7344016092335708</v>
+        <v>0.5317931274152391</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1248,29 +1266,29 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>56.2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9287602004081744</v>
+        <v>0.4243542343136835</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4234556463293488</v>
+        <v>0.2121547551425899</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1304,29 +1322,29 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1827586206896552</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5597322648540344</v>
+        <v>0.1978952679568963</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2958507139389689</v>
+        <v>0.1230049440234325</v>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I26" t="n">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1340,25 +1358,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
         <v>397.8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3950017190883003</v>
+        <v>0.1792926562631395</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6736729295195936</v>
+        <v>0.4356059786971236</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1376,29 +1394,29 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
         <v>83.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5903138538920576</v>
+        <v>0.678713154294719</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3219217423745138</v>
+        <v>0.4157351584096278</v>
       </c>
       <c r="H28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1452,27 +1470,31 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.3521334417023179</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2117006385713014</v>
       </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I31" t="n">
-        <v>26</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1484,25 +1506,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>61.3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0103448275862069</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06983778528977332</v>
+        <v>0.1862923499335143</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02819271489727682</v>
+        <v>0.0983119474042967</v>
       </c>
       <c r="H32" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I32" t="n">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1520,25 +1542,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>20.3</v>
       </c>
       <c r="D33" t="n">
         <v>574.6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.5848484848484848</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2551837286586607</v>
+        <v>0.1053448605670468</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6558654634251844</v>
+        <v>0.4409973975640534</v>
       </c>
       <c r="H33" t="n">
         <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1556,25 +1578,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10.9</v>
+        <v>13.3</v>
       </c>
       <c r="D34" t="n">
         <v>186.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3413793103448276</v>
+        <v>0.3727272727272727</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3801033014925735</v>
+        <v>0.3200415488933167</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3529965076891514</v>
+        <v>0.3569215555770859</v>
       </c>
       <c r="H34" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I34" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1592,29 +1614,29 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
         <v>132.3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8986919571893519</v>
+        <v>0.3447659190056051</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6316765526740469</v>
+        <v>0.2943388666107724</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1628,25 +1650,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
         <v>32.3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1137931034482759</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3796551724137931</v>
+        <v>0.4060606060606061</v>
       </c>
       <c r="H36" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I36" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1664,29 +1686,29 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
         <v>95.3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1137931034482759</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2685822149579645</v>
+        <v>0.3944835305640371</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1602298369011824</v>
+        <v>0.2668299076540596</v>
       </c>
       <c r="H37" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1700,27 +1722,27 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>50</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7246828979013606</v>
+        <v>0.2520720077846254</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3139565935083392</v>
+        <v>0.11804584475963</v>
       </c>
       <c r="H38" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1756,29 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>23.3</v>
       </c>
       <c r="D39" t="n">
         <v>196.4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.6757575757575758</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6552837243076595</v>
+        <v>0.6007965907692118</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6069299448785046</v>
+        <v>0.6532692802610666</v>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1770,29 +1792,29 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
         <v>383.5</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5437268754775135</v>
+        <v>0.08132844411947422</v>
       </c>
       <c r="G40" t="n">
-        <v>0.863118062643254</v>
+        <v>0.2577318665691756</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I40" t="n">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1806,29 +1828,29 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
         <v>150.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2246999876486542</v>
+        <v>0.4875959455506981</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1880996514670101</v>
+        <v>0.4432484806349064</v>
       </c>
       <c r="H41" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1864,29 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
         <v>157.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3694046113378886</v>
+        <v>0.1222294302086712</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3039248316772286</v>
+        <v>0.1427294351232074</v>
       </c>
       <c r="H42" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1877,16 +1899,32 @@
           <t>造纸</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
       <c r="D43" t="n">
         <v>22.3</v>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9620184366071328</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3522418946185034</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-19</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1898,31 +1936,27 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>42</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03448275862068965</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2893461539064939</v>
+        <v>0.03683512760710295</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1109417772064309</v>
+        <v>0.01105053828213089</v>
       </c>
       <c r="H44" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1940,19 +1974,19 @@
         <v>77.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.103448275862069</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F45" t="n">
-        <v>0.321986209688677</v>
+        <v>0.2017955688717532</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1690096560100514</v>
+        <v>0.1241750342978896</v>
       </c>
       <c r="H45" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -1996,19 +2030,19 @@
         <v>156.9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5292240399596363</v>
+        <v>0.3500950027774177</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4242844533672012</v>
+        <v>0.3383618341665586</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I47" t="n">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2035,15 +2069,17 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2837720598732689</v>
+        <v>0.1744495154151927</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08513161796198067</v>
+        <v>0.05233485462455782</v>
       </c>
       <c r="H48" t="n">
-        <v>34</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="I48" t="n">
+        <v>29</v>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>4</t>

--- a/今日行业上榜.xlsx
+++ b/今日行业上榜.xlsx
@@ -510,29 +510,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D3" t="n">
         <v>137.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1484848484848485</v>
+        <v>0.1325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1506123798268919</v>
+        <v>0.1789309068069182</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1491231078874615</v>
+        <v>0.1464292720420755</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>59.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5972781889551161</v>
+        <v>0.1231167013493735</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3064561839592621</v>
+        <v>0.05443501040481205</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I4" t="n">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
         <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.075</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05706415769897536</v>
+        <v>0.09312165792692616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08075561094605624</v>
+        <v>0.08043649737807784</v>
       </c>
       <c r="H5" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -618,29 +618,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>17.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5827850784680987</v>
+        <v>0.7661279661037044</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1960476447525508</v>
+        <v>0.2648383898311113</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2057977053196352</v>
+        <v>0.2683398721098164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1253756752322542</v>
+        <v>0.1505019616329449</v>
       </c>
       <c r="H7" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -690,29 +690,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.125</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1261963770420733</v>
+        <v>0.2360164779780389</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1014952767489856</v>
+        <v>0.1583049433934117</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -726,29 +726,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.3</v>
+        <v>9.6</v>
       </c>
       <c r="D9" t="n">
         <v>94.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1909090909090909</v>
+        <v>0.215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3532017944236645</v>
+        <v>0.4340218238339438</v>
       </c>
       <c r="G9" t="n">
-        <v>0.239596901963463</v>
+        <v>0.2807065471501832</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D10" t="n">
         <v>162.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.303030303030303</v>
+        <v>0.2475</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2973258525332362</v>
+        <v>0.2762590782109534</v>
       </c>
       <c r="G10" t="n">
-        <v>0.301318967881183</v>
+        <v>0.256127723463286</v>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -798,29 +798,29 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.025</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9657521894258838</v>
+        <v>0.1519943237879846</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4594226265247348</v>
+        <v>0.06309829713639539</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I11" t="n">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -834,29 +834,29 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
         <v>237.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.325</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1953497393530872</v>
+        <v>0.2388731981426883</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2919382551392595</v>
+        <v>0.2991619594428065</v>
       </c>
       <c r="H12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>407.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7363636363636363</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2648402972866817</v>
+        <v>0.06962945287253619</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5949066346405499</v>
+        <v>0.1608888358617608</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
         <v>545.6</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2658502908612772</v>
+        <v>0.3137862504596691</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7797550872583832</v>
+        <v>0.7941358751379006</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -942,25 +942,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.225</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6205166544042996</v>
+        <v>0.6695895427042209</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3346398448061383</v>
+        <v>0.3583768628112662</v>
       </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -978,25 +978,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28.3</v>
+        <v>30.6</v>
       </c>
       <c r="D16" t="n">
         <v>403.2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8272727272727273</v>
+        <v>0.74</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3126663816723215</v>
+        <v>0.3172213999844791</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6728908235926055</v>
+        <v>0.6131664199953437</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1013,32 +1013,16 @@
           <t>大金融</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>170.3</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.04242424242424242</v>
-      </c>
-      <c r="H17" t="n">
-        <v>41</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,25 +1034,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>62</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.075</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1830061837548262</v>
+        <v>0.2648504361764104</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09732609755069027</v>
+        <v>0.1319551308529231</v>
       </c>
       <c r="H18" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1086,29 +1070,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1399782069644277</v>
+        <v>0.2835905313676152</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08441770451357072</v>
+        <v>0.1550771594102845</v>
       </c>
       <c r="H19" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1122,25 +1106,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D20" t="n">
         <v>117.3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.0575</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04733766752692418</v>
+        <v>0.09736643576149669</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05662554268231967</v>
+        <v>0.069459930728449</v>
       </c>
       <c r="H20" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1158,29 +1142,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>45.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.025</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5487851968552584</v>
+        <v>0.1702053448153824</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2494840439050623</v>
+        <v>0.06856160344461473</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1176,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>119.9</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06969696969696969</v>
+        <v>0.025</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05892003201933062</v>
+        <v>0.04464701246079104</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06646388839367796</v>
+        <v>0.03089410373823731</v>
       </c>
       <c r="H22" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1230,29 +1212,29 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
         <v>333.3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.425</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2877952732023121</v>
+        <v>0.2164659642869199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5317931274152391</v>
+        <v>0.362439789286076</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1266,25 +1248,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>56.2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.075</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4243542343136835</v>
+        <v>0.2955006259054264</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2121547551425899</v>
+        <v>0.1411501877716279</v>
       </c>
       <c r="H24" t="n">
         <v>24</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1322,25 +1304,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1978952679568963</v>
+        <v>0.02642735154705241</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1230049440234325</v>
+        <v>0.007928205464115724</v>
       </c>
       <c r="H26" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1358,25 +1340,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
         <v>397.8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1792926562631395</v>
+        <v>0.2571606558212942</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4356059786971236</v>
+        <v>0.4971481967463882</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1394,29 +1376,29 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>83.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.303030303030303</v>
+        <v>0.05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.678713154294719</v>
+        <v>0.1332501790578553</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4157351584096278</v>
+        <v>0.07497505371735658</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I28" t="n">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1429,16 +1411,32 @@
           <t>烟草</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
       <c r="D29" t="n">
         <v>29</v>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2853324892414604</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1030997467724381</v>
+      </c>
+      <c r="H29" t="n">
+        <v>29</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1449,16 +1447,30 @@
           <t>煤炭</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" t="n">
         <v>42</v>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.07746403402770849</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02323921020831255</v>
+      </c>
+      <c r="H30" t="n">
+        <v>40</v>
+      </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1470,29 +1482,29 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3521334417023179</v>
+        <v>0.4983353509499577</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2117006385713014</v>
+        <v>0.2895006052849873</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I31" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1506,25 +1518,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>61.3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.025</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1862923499335143</v>
+        <v>0.1180512516065941</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0983119474042967</v>
+        <v>0.05291537548197824</v>
       </c>
       <c r="H32" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I32" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1542,25 +1554,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20.3</v>
+        <v>25.3</v>
       </c>
       <c r="D33" t="n">
         <v>574.6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5848484848484848</v>
+        <v>0.6075</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1053448605670468</v>
+        <v>0.1705486898573771</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4409973975640534</v>
+        <v>0.4764146069572132</v>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1578,31 +1590,27 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13.3</v>
+        <v>1.3</v>
       </c>
       <c r="D34" t="n">
         <v>186.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3727272727272727</v>
+        <v>0.007500000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3200415488933167</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3569215555770859</v>
+        <v>0.00525</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I34" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1614,29 +1622,29 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
         <v>132.3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.35</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3447659190056051</v>
+        <v>0.4897814633737738</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2943388666107724</v>
+        <v>0.3919344390121321</v>
       </c>
       <c r="H35" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1650,29 +1658,29 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>32.3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1515151515151515</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0.1103789771471166</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4060606060606061</v>
+        <v>0.03311369314413497</v>
       </c>
       <c r="H36" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1686,25 +1694,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>95.3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3944835305640371</v>
+        <v>0.2093791046329747</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2668299076540596</v>
+        <v>0.1328137313898924</v>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1728,18 +1736,20 @@
         <v>50</v>
       </c>
       <c r="E38" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2520720077846254</v>
+        <v>0.2440611523153845</v>
       </c>
       <c r="G38" t="n">
-        <v>0.11804584475963</v>
+        <v>0.1082183456946154</v>
       </c>
       <c r="H38" t="n">
-        <v>32</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-3</v>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>4</t>
@@ -1756,25 +1766,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23.3</v>
+        <v>20.3</v>
       </c>
       <c r="D39" t="n">
         <v>196.4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6757575757575758</v>
+        <v>0.4825</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6007965907692118</v>
+        <v>0.4436642866685764</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6532692802610666</v>
+        <v>0.4708492860005729</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1792,25 +1802,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
         <v>383.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08132844411947422</v>
+        <v>0.09989914310885611</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2577318665691756</v>
+        <v>0.2049697429326568</v>
       </c>
       <c r="H40" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I40" t="n">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1828,25 +1838,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D41" t="n">
         <v>150.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.5</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4875959455506981</v>
+        <v>0.6097608656293995</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4432484806349064</v>
+        <v>0.5329282596888198</v>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1864,25 +1874,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="D42" t="n">
         <v>157.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1075</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1222294302086712</v>
+        <v>0.123062381489934</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1427294351232074</v>
+        <v>0.1121687144469802</v>
       </c>
       <c r="H42" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I42" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1900,29 +1910,29 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>22.3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9620184366071328</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3522418946185034</v>
+        <v>0.37</v>
       </c>
       <c r="H43" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1946,31 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>42</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03683512760710295</v>
+        <v>0.5158775032058033</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01105053828213089</v>
+        <v>0.224763250961741</v>
       </c>
       <c r="H44" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>-9</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1968,25 +1982,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.05</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2017955688717532</v>
+        <v>0.1458248971340867</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1241750342978896</v>
+        <v>0.07874746914022601</v>
       </c>
       <c r="H45" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2024,29 +2038,29 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D47" t="n">
         <v>156.9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3500950027774177</v>
+        <v>0.613326003764032</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3383618341665586</v>
+        <v>0.5514978011292095</v>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2059,32 +2073,16 @@
           <t>饰品</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
         <v>21.3</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.1744495154151927</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.05233485462455782</v>
-      </c>
-      <c r="H48" t="n">
-        <v>40</v>
-      </c>
-      <c r="I48" t="n">
-        <v>29</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/今日行业上榜.xlsx
+++ b/今日行业上榜.xlsx
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="D3" t="n">
         <v>137.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1325</v>
+        <v>0.125673249551167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1789309068069182</v>
+        <v>0.04523390035601144</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1464292720420755</v>
+        <v>0.1015414447926203</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -546,31 +546,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>59.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.025</v>
+        <v>0.0125673249551167</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1231167013493735</v>
+        <v>0.008665346294755901</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05443501040481205</v>
+        <v>0.01139673135700846</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -582,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.075</v>
+        <v>0.04847396768402155</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09312165792692616</v>
+        <v>0.01223966174025736</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08043649737807784</v>
+        <v>0.03760367590089229</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -617,32 +613,16 @@
           <t>体育产业</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>17.3</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7661279661037044</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2648383898311113</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,29 +634,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.06642728904847396</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2683398721098164</v>
+        <v>0.04431608264653818</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1505019616329449</v>
+        <v>0.05979392712789322</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -690,29 +670,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="D8" t="n">
         <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>0.125</v>
+        <v>0.1490125673249551</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2360164779780389</v>
+        <v>0.07585270617834433</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1583049433934117</v>
+        <v>0.1270646089809719</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -726,25 +706,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="D9" t="n">
         <v>94.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.215</v>
+        <v>0.1723518850987432</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4340218238339438</v>
+        <v>0.0969625124836596</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2807065471501832</v>
+        <v>0.1497350733142181</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -768,19 +748,19 @@
         <v>162.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2475</v>
+        <v>0.1903052064631957</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2762590782109534</v>
+        <v>0.05921443504870701</v>
       </c>
       <c r="G10" t="n">
-        <v>0.256127723463286</v>
+        <v>0.1509779750388491</v>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -798,25 +778,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>0.025</v>
+        <v>0.06642728904847396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1519943237879846</v>
+        <v>0.07232841565105837</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06309829713639539</v>
+        <v>0.06819762702924928</v>
       </c>
       <c r="H11" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -834,25 +814,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
         <v>237.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.325</v>
+        <v>0.2998204667863554</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2388731981426883</v>
+        <v>0.0637460881255425</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2991619594428065</v>
+        <v>0.2289981531881115</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -870,29 +850,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>407.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2</v>
+        <v>0.3536804308797127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06962945287253619</v>
+        <v>0.04119896216751758</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1608888358617608</v>
+        <v>0.2599359902660542</v>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -906,7 +886,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
         <v>545.6</v>
@@ -915,16 +895,16 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3137862504596691</v>
+        <v>0.09515649365428999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7941358751379006</v>
+        <v>0.728546948096287</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -942,29 +922,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.225</v>
+        <v>0.1023339317773788</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6695895427042209</v>
+        <v>0.0838874200159577</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3583768628112662</v>
+        <v>0.09679997824895248</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -978,25 +958,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30.6</v>
+        <v>26.6</v>
       </c>
       <c r="D16" t="n">
         <v>403.2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.74</v>
+        <v>0.4721723518850987</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3172213999844791</v>
+        <v>0.05818366474235621</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6131664199953437</v>
+        <v>0.3479757457422759</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1013,16 +993,32 @@
           <t>大金融</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
       <c r="D17" t="n">
         <v>170.3</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0.06642728904847396</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01534514234963241</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05110264503882149</v>
+      </c>
+      <c r="H17" t="n">
+        <v>29</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,25 +1030,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>62</v>
       </c>
       <c r="E18" t="n">
-        <v>0.075</v>
+        <v>0.04847396768402155</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2648504361764104</v>
+        <v>0.04045190258436963</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1319551308529231</v>
+        <v>0.04606734815412597</v>
       </c>
       <c r="H18" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I18" t="n">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1070,25 +1066,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1</v>
+        <v>0.1202872531418312</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2835905313676152</v>
+        <v>0.08848396539936701</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1550771594102845</v>
+        <v>0.110746266819092</v>
       </c>
       <c r="H19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I19" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1106,29 +1102,29 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.3</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
         <v>117.3</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0575</v>
+        <v>0.3357271095152603</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09736643576149669</v>
+        <v>0.1549898370816101</v>
       </c>
       <c r="G20" t="n">
-        <v>0.069459930728449</v>
+        <v>0.2815059277851652</v>
       </c>
       <c r="H20" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1148,18 +1144,20 @@
         <v>45.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.025</v>
+        <v>0.03052064631956912</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1702053448153824</v>
+        <v>0.03598390064073195</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06856160344461473</v>
+        <v>0.03215962261591797</v>
       </c>
       <c r="H21" t="n">
         <v>34</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>-7</v>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>4</t>
@@ -1175,32 +1173,16 @@
           <t>有色金属</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>119.9</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.04464701246079104</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.03089410373823731</v>
-      </c>
-      <c r="H22" t="n">
-        <v>39</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,29 +1194,29 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
         <v>333.3</v>
       </c>
       <c r="E23" t="n">
-        <v>0.425</v>
+        <v>0.4254937163375224</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2164659642869199</v>
+        <v>0.06426896698649981</v>
       </c>
       <c r="G23" t="n">
-        <v>0.362439789286076</v>
+        <v>0.3171262915322156</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1230,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="D24" t="n">
         <v>56.2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.075</v>
+        <v>0.1131059245960503</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2955006259054264</v>
+        <v>0.1100783192072663</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1411501877716279</v>
+        <v>0.112197642979415</v>
       </c>
       <c r="H24" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>-11</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1304,29 +1286,29 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D26" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1436265709156194</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02642735154705241</v>
+        <v>0.09813983322642721</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007928205464115724</v>
+        <v>0.1299805496088617</v>
       </c>
       <c r="H26" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>-24</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1340,25 +1322,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="D27" t="n">
         <v>397.8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6</v>
+        <v>0.4488330341113106</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2571606558212942</v>
+        <v>0.05579145853831738</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4971481967463882</v>
+        <v>0.3309205614394126</v>
       </c>
       <c r="H27" t="n">
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1382,19 +1364,19 @@
         <v>83.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05</v>
+        <v>0.04847396768402155</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1332501790578553</v>
+        <v>0.02788905831697733</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07497505371735658</v>
+        <v>0.04229849487390828</v>
       </c>
       <c r="H28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1418,19 +1400,19 @@
         <v>29</v>
       </c>
       <c r="E29" t="n">
-        <v>0.025</v>
+        <v>0.03052064631956912</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2853324892414604</v>
+        <v>0.06120191988675322</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1030997467724381</v>
+        <v>0.03972502838972435</v>
       </c>
       <c r="H29" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I29" t="n">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1447,30 +1429,16 @@
           <t>煤炭</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>42</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.07746403402770849</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.02323921020831255</v>
-      </c>
-      <c r="H30" t="n">
-        <v>40</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1481,32 +1449,16 @@
           <t>电力</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>9</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.4983353509499577</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2895006052849873</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1524,19 +1476,19 @@
         <v>61.3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.025</v>
+        <v>0.03052064631956912</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1180512516065941</v>
+        <v>0.02455981005936168</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05291537548197824</v>
+        <v>0.02873239544150689</v>
       </c>
       <c r="H32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1554,25 +1506,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
         <v>574.6</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6075</v>
+        <v>0.4614003590664272</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1705486898573771</v>
+        <v>0.03728750591369918</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4764146069572132</v>
+        <v>0.3341665031206088</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1590,27 +1542,31 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="D34" t="n">
         <v>186.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.007500000000000001</v>
+        <v>0.1131059245960503</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.02740264938898148</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00525</v>
+        <v>0.08739494203392961</v>
       </c>
       <c r="H34" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I34" t="n">
-        <v>17</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1622,25 +1578,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
         <v>132.3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.35</v>
+        <v>0.40754039497307</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4897814633737738</v>
+        <v>0.1669582949707571</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3919344390121321</v>
+        <v>0.3353657649723761</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1664,19 +1620,19 @@
         <v>32.3</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.0125673249551167</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1103789771471166</v>
+        <v>0.02287923710721924</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03311369314413497</v>
+        <v>0.01566089860074746</v>
       </c>
       <c r="H36" t="n">
         <v>38</v>
       </c>
       <c r="I36" t="n">
-        <v>28</v>
+        <v>-2</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1694,25 +1650,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
         <v>95.3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1</v>
+        <v>0.1023339317773788</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2093791046329747</v>
+        <v>0.05514539346730591</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1328137313898924</v>
+        <v>0.08817737028435695</v>
       </c>
       <c r="H37" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1730,29 +1686,29 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
         <v>50</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05</v>
+        <v>0.1023339317773788</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2440611523153845</v>
+        <v>0.1126619627966645</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1082183456946154</v>
+        <v>0.1054323410831645</v>
       </c>
       <c r="H38" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>-3</v>
+        <v>-16</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1766,29 +1722,29 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20.3</v>
+        <v>16.3</v>
       </c>
       <c r="D39" t="n">
         <v>196.4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4825</v>
+        <v>0.2872531418312388</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4436642866685764</v>
+        <v>0.07534727075818877</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4708492860005729</v>
+        <v>0.2236813805093238</v>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1802,29 +1758,29 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>383.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.25</v>
+        <v>0.0843806104129264</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09989914310885611</v>
+        <v>0.004807849112651191</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2049697429326568</v>
+        <v>0.06050878202284383</v>
       </c>
       <c r="H40" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I40" t="n">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1838,29 +1794,29 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
         <v>150.6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5</v>
+        <v>0.1561938958707361</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6097608656293995</v>
+        <v>0.051920604943919</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5329282596888198</v>
+        <v>0.1249119085926909</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1874,25 +1830,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="D42" t="n">
         <v>157.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1075</v>
+        <v>0.01795332136445242</v>
       </c>
       <c r="F42" t="n">
-        <v>0.123062381489934</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1121687144469802</v>
+        <v>0.0125673249551167</v>
       </c>
       <c r="H42" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I42" t="n">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1910,29 +1866,29 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>22.3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1</v>
+        <v>0.04847396768402155</v>
       </c>
       <c r="F43" t="n">
+        <v>0.127312264674665</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.07212545678121457</v>
+      </c>
+      <c r="H43" t="n">
+        <v>25</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-15</v>
-      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1945,32 +1901,16 @@
           <t>钢铁</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>5</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
         <v>42</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.5158775032058033</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.224763250961741</v>
-      </c>
-      <c r="H44" t="n">
-        <v>17</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1982,25 +1922,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05</v>
+        <v>0.03052064631956912</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1458248971340867</v>
+        <v>0.01764943163407683</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07874746914022601</v>
+        <v>0.02665928191392143</v>
       </c>
       <c r="H45" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I45" t="n">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2017,16 +1957,32 @@
           <t>食品医疗</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>0.3</v>
+      </c>
       <c r="D46" t="n">
         <v>0.3</v>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2038,29 +1994,29 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
         <v>156.9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.525</v>
+        <v>0.1741472172351885</v>
       </c>
       <c r="F47" t="n">
-        <v>0.613326003764032</v>
+        <v>0.05592764887037212</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5514978011292095</v>
+        <v>0.1386813467257436</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I47" t="n">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2073,16 +2029,30 @@
           <t>饰品</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
       <c r="D48" t="n">
         <v>21.3</v>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0.0125673249551167</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.03900116542745891</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02049747709681936</v>
+      </c>
+      <c r="H48" t="n">
+        <v>37</v>
+      </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
